--- a/docs/requirements/Master Data Tables - Test Data/master-authentication_method.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-authentication_method.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C37220C3-3351-4FAD-BBBC-6DC5671796A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +46,6 @@
     <t>OTP</t>
   </si>
   <si>
-    <t>BIO</t>
-  </si>
-  <si>
     <t>IRIS</t>
   </si>
   <si>
@@ -61,12 +59,15 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>FINGERPRINT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -389,6 +390,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -421,16 +423,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -441,76 +443,76 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
